--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3866219.996442629</v>
+        <v>3863884.885240648</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7379316.997211382</v>
+        <v>7379316.997211381</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.94942429078201</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>217.5465632597899</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.9219060821654</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>188.4649415276189</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>108.0165900216647</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>316.3092864313153</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>13.18609391401979</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,13 +1060,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542791</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606653</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>52.33551640890152</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.75769145492379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>17.1579442152432</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>32.27552175740353</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141584</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541129</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183131</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1076.257000807301</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>707.2944838668893</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>349.0287852601388</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>349.0287852601388</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847234</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1852.996172847234</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1462.856840871423</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>643.5623317901023</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C4" t="n">
-        <v>643.5623317901023</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>493.4456923777666</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>345.5325987953735</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>198.6426512974631</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>198.6426512974631</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
         <v>51.2467865680031</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.34446183165</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>864.3549109336325</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.5623317901023</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>428.1223321592641</v>
+        <v>603.603648011926</v>
       </c>
       <c r="C5" t="n">
-        <v>428.1223321592641</v>
+        <v>494.4959813233758</v>
       </c>
       <c r="D5" t="n">
-        <v>69.85663355251364</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188879</v>
+        <v>2106.577233583053</v>
       </c>
       <c r="W5" t="n">
-        <v>1578.327262460278</v>
+        <v>1753.808578312939</v>
       </c>
       <c r="X5" t="n">
-        <v>1204.861504199198</v>
+        <v>1380.342820051859</v>
       </c>
       <c r="Y5" t="n">
-        <v>814.722172223386</v>
+        <v>990.2034880760477</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>423.1489515180659</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>717.8525085495376</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1081.114527508757</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>370.2996089082457</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>383.6188956900839</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1685.375546116518</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1316.413029176106</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>958.147330569356</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>572.3590779711117</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>161.3731731815041</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5005,7 +5005,7 @@
         <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.0249360836216</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5124,22 +5124,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5595,13 +5595,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>214.9229991561138</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>710.2486053718725</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6552,16 +6552,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7078,19 +7078,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.591198401904</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>193.3273467878356</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>193.3273467878351</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>114.1584408891656</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>68.5257599066253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492422</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624252</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667965</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>634077.8302699273</v>
+        <v>634077.8302699272</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="G2" t="n">
-        <v>786967.9346977555</v>
-      </c>
       <c r="H2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403381</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921026</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.2351281079</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756653</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756604</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
+        <v>9337.200356756655</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.200356756613</v>
+      </c>
+      <c r="L4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="K4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756632</v>
-      </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756655</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756655</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-543900.1040901901</v>
+        <v>-543900.1040901905</v>
       </c>
       <c r="C6" t="n">
-        <v>570851.6794857293</v>
+        <v>570851.6794857294</v>
       </c>
       <c r="D6" t="n">
         <v>411430.4094878364</v>
       </c>
       <c r="E6" t="n">
-        <v>351095.7427097368</v>
+        <v>351061.004784301</v>
       </c>
       <c r="F6" t="n">
-        <v>676508.204517092</v>
+        <v>676473.4665916566</v>
       </c>
       <c r="G6" t="n">
-        <v>676508.2045170919</v>
+        <v>676473.4665916563</v>
       </c>
       <c r="H6" t="n">
-        <v>676508.2045170922</v>
+        <v>676473.466591656</v>
       </c>
       <c r="I6" t="n">
-        <v>676508.2045170923</v>
+        <v>676473.4665916562</v>
       </c>
       <c r="J6" t="n">
-        <v>508903.0267071095</v>
+        <v>508868.2887816743</v>
       </c>
       <c r="K6" t="n">
-        <v>676508.2045170922</v>
+        <v>676473.4665916563</v>
       </c>
       <c r="L6" t="n">
-        <v>628214.2345089013</v>
+        <v>628179.4965834657</v>
       </c>
       <c r="M6" t="n">
-        <v>591453.1765815803</v>
+        <v>591418.4386561447</v>
       </c>
       <c r="N6" t="n">
-        <v>676508.204517092</v>
+        <v>676473.4665916564</v>
       </c>
       <c r="O6" t="n">
-        <v>676508.204517092</v>
+        <v>676473.4665916563</v>
       </c>
       <c r="P6" t="n">
-        <v>676508.2045170922</v>
+        <v>676473.4665916563</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000385</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>190.8166233022541</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>190.8166233022539</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.7844173726986</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>189.3294824819215</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>1.329603072963437</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>30.11971182447584</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>257.2563017493428</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>32.93168228609773</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>166.6458862679175</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>222.9250743103422</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>358.5862092445519</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>150.0888768833846</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28561,13 +28561,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31279,7 +31279,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31297,7 +31297,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31312,13 +31312,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31367,22 +31367,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31449,10 +31449,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31467,13 +31467,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31844,25 +31844,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>461.1007071927452</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,16 +32315,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,7 +33032,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,19 +33506,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,31 +33731,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,13 +34778,13 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>553.5225306839445</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34793,7 +34793,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750462</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34936,7 +34936,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34945,7 +34945,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35024,13 +35024,13 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>584.5244463807094</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
-        <v>443.0068759113673</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667036</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35100,7 +35100,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35109,7 +35109,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>318.5044627483008</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,19 +37154,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
